--- a/outputs/cnn_wave_results.xlsx
+++ b/outputs/cnn_wave_results.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1875</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2089076787233353</v>
+        <v>0.2025251686573029</v>
       </c>
       <c r="D2" t="n">
         <v>0.2000000029802322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1935289800167084</v>
+        <v>0.1900897026062012</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1912763714790344</v>
+        <v>0.1902805864810944</v>
       </c>
       <c r="D3" t="n">
         <v>0.2000000029802322</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1912486851215363</v>
+        <v>0.1902458369731903</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>0.268750011920929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1890747100114822</v>
+        <v>0.1891886591911316</v>
       </c>
       <c r="D4" t="n">
         <v>0.2000000029802322</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1924218535423279</v>
+        <v>0.1908315420150757</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.300000011920929</v>
+        <v>0.2374999970197678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1868678629398346</v>
+        <v>0.1884809583425522</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1953122913837433</v>
+        <v>0.1955219358205795</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.331250011920929</v>
+        <v>0.2562499940395355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1850434392690659</v>
+        <v>0.1886744201183319</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1943753957748413</v>
+        <v>0.1901074796915054</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3687500059604645</v>
+        <v>0.28125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182776004076004</v>
+        <v>0.1873501390218735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1997933387756348</v>
+        <v>0.1927498877048492</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4124999940395355</v>
+        <v>0.2874999940395355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178111732006073</v>
+        <v>0.1862628012895584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1991515606641769</v>
+        <v>0.1920082867145538</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.40625</v>
+        <v>0.331250011920929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1746675074100494</v>
+        <v>0.1839749068021774</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1980310380458832</v>
+        <v>0.1943828165531158</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.481249988079071</v>
+        <v>0.356249988079071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167262002825737</v>
+        <v>0.1816280484199524</v>
       </c>
       <c r="D10" t="n">
         <v>0.1500000059604645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1976497322320938</v>
+        <v>0.1926939189434052</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.543749988079071</v>
+        <v>0.393750011920929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1586652398109436</v>
+        <v>0.1789968907833099</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.1749999970197678</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2023718804121017</v>
+        <v>0.1945878565311432</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.418749988079071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1479245722293854</v>
+        <v>0.1739728152751923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2076614797115326</v>
+        <v>0.1964870542287827</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.637499988079071</v>
+        <v>0.456250011920929</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1367367208003998</v>
+        <v>0.1701681911945343</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2109849452972412</v>
+        <v>0.2020240277051926</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6937500238418579</v>
+        <v>0.4749999940395355</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1212260872125626</v>
+        <v>0.1627120822668076</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2239148616790771</v>
+        <v>0.2052769213914871</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.793749988079071</v>
+        <v>0.543749988079071</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1048989519476891</v>
+        <v>0.1551084220409393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2201543301343918</v>
+        <v>0.2035467624664307</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.862500011920929</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08497754484415054</v>
+        <v>0.1423233896493912</v>
       </c>
       <c r="D16" t="n">
         <v>0.1749999970197678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2339355200529099</v>
+        <v>0.2079560458660126</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9375</v>
+        <v>0.6937500238418579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0676928386092186</v>
+        <v>0.1266935467720032</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2311759889125824</v>
+        <v>0.2172607183456421</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.96875</v>
+        <v>0.706250011920929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05444768816232681</v>
+        <v>0.1143978387117386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2249999940395355</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="E18" t="n">
-        <v>0.248933345079422</v>
+        <v>0.2231287062168121</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.981249988079071</v>
+        <v>0.8125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0392400398850441</v>
+        <v>0.09102141857147217</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2249999940395355</v>
+        <v>0.1749999970197678</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2638056576251984</v>
+        <v>0.2483711540699005</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9125000238418579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03067881427705288</v>
+        <v>0.07408355176448822</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2545605301856995</v>
+        <v>0.2414423227310181</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02342101000249386</v>
+        <v>0.05895372107625008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2691719830036163</v>
+        <v>0.2618082165718079</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01911346241831779</v>
+        <v>0.0436834953725338</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2536207735538483</v>
+        <v>0.2511889934539795</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01305296085774899</v>
+        <v>0.03296905383467674</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.125</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2864312529563904</v>
+        <v>0.2738993763923645</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01208957191556692</v>
+        <v>0.02646046318113804</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2915685772895813</v>
+        <v>0.2780892252922058</v>
       </c>
     </row>
     <row r="25">
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009540675207972527</v>
+        <v>0.01950326189398766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2859272360801697</v>
+        <v>0.2794030010700226</v>
       </c>
     </row>
     <row r="26">
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007908870466053486</v>
+        <v>0.01473446004092693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2750777900218964</v>
+        <v>0.286578893661499</v>
       </c>
     </row>
     <row r="27">
@@ -888,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006516862660646439</v>
+        <v>0.01272809971123934</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2765740156173706</v>
+        <v>0.2735411524772644</v>
       </c>
     </row>
     <row r="28">
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005228689406067133</v>
+        <v>0.00965676736086607</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2727606296539307</v>
+        <v>0.2792800068855286</v>
       </c>
     </row>
     <row r="29">
@@ -922,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003467881353572011</v>
+        <v>0.007384727708995342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2862139344215393</v>
+        <v>0.28630131483078</v>
       </c>
     </row>
     <row r="30">
@@ -939,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003292723093181849</v>
+        <v>0.006034146063029766</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2764012217521667</v>
+        <v>0.2861983180046082</v>
       </c>
     </row>
     <row r="31">
@@ -956,13 +956,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002664171392098069</v>
+        <v>0.004385470412671566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.125</v>
       </c>
       <c r="E31" t="n">
-        <v>0.277685821056366</v>
+        <v>0.2859434187412262</v>
       </c>
     </row>
   </sheetData>
